--- a/数据整理/stocks/A股/深证主板/002413-雷科防务.xlsx
+++ b/数据整理/stocks/A股/深证主板/002413-雷科防务.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>14.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.45</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>7.08</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0323</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>290006</t>
+          <t>001970</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰信蓝筹精选混合</t>
+          <t>泰信鑫选灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>90.74</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001970</t>
+          <t>290012</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泰信鑫选灵活配置混合A</t>
+          <t>泰信行业精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.00</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.85</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002580</t>
+          <t>290006</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>泰信鑫选灵活配置混合C</t>
+          <t>泰信蓝筹精选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.00</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.85</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002583</t>
+          <t>005104</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>泰信行业精选灵活配置混合C</t>
+          <t>富荣福康混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.47</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6.18</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>290012</t>
+          <t>005105</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>泰信行业精选灵活配置混合A</t>
+          <t>富荣福康混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.47</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6.18</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,34 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005104</t>
+          <t>002580</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>富荣福康混合A</t>
+          <t>泰信鑫选灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>92.22</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +766,34 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005105</t>
+          <t>002583</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>富荣福康混合C</t>
+          <t>泰信行业精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>92.22</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -721,7 +807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -742,15 +828,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -762,26 +858,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>290012</t>
+          <t>010194</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰信行业精选灵活配置混合A</t>
+          <t>博时睿祥15个月定期开放混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.09</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7.37</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+          <t>64.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -790,25 +896,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002583</t>
+          <t>290012</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰信行业精选灵活配置混合C</t>
+          <t>泰信行业精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.09</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>7.37</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -818,25 +934,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010194</t>
+          <t>010195</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时睿祥15个月定期开放混合A</t>
+          <t>博时睿祥15个月定期开放混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>64.37</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2.96</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -846,26 +972,30 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010195</t>
+          <t>002583</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博时睿祥15个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>64.37</t>
-        </is>
-      </c>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002413-雷科防务.xlsx
+++ b/数据整理/stocks/A股/深证主板/002413-雷科防务.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -980,7 +981,6 @@
           <t>泰信行业精选灵活配置混合C</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>94.09</t>
@@ -995,6 +995,288 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010194</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>69.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004227</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰信鑫利混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>27.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004228</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰信鑫利混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>27.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010195</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>69.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
         <v>3</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002413-雷科防务.xlsx
+++ b/数据整理/stocks/A股/深证主板/002413-雷科防务.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1283,4 +1284,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002413-雷科防务.xlsx
+++ b/数据整理/stocks/A股/深证主板/002413-雷科防务.xlsx
@@ -1308,12 +1308,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002413-雷科防务.xlsx
+++ b/数据整理/stocks/A股/深证主板/002413-雷科防务.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1292,7 +1293,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1303,17 +1304,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1323,14 +1344,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.13</v>
+          <t>005313</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1210</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1339,14 +1382,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.12</v>
+          <t>014201</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0910</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1355,13 +1420,173 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>005314</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014202</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>8</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.19</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002413-雷科防务.xlsx
+++ b/数据整理/stocks/A股/深证主板/002413-雷科防务.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,353 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>290011</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>泰信中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>14.58</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.45</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.08</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.0323</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001970</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>泰信鑫选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.00</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.85</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0582</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>290012</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>泰信行业精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.18</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0525</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>290006</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>泰信蓝筹精选混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.74</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0460</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005104</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>富荣福康混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.22</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0041</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005105</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富荣福康混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.22</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002580</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>泰信鑫选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.00</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.85</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>002583</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>泰信行业精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.18</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -831,7 +575,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -861,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010194</t>
+          <t>005313</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博时睿祥15个月定期开放混合A</t>
+          <t>万家中证1000指数增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>10.17</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>64.37</t>
+          <t>94.06</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0696</t>
+          <t>0.1210</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -899,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>290012</t>
+          <t>014201</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰信行业精选灵活配置混合A</t>
+          <t>天弘中证1000指数增强A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.09</t>
+          <t>94.95</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.37</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0479</t>
+          <t>0.0910</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -937,36 +681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010195</t>
+          <t>005314</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时睿祥15个月定期开放混合C</t>
+          <t>万家中证1000指数增强C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>64.37</t>
+          <t>94.06</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0003</t>
+          <t>0.0585</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -975,29 +719,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002583</t>
+          <t>014202</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>泰信行业精选灵活配置混合C</t>
+          <t>天弘中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.36</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.09</t>
+          <t>94.95</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.37</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1314,7 +1065,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1344,36 +1095,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005313</t>
+          <t>010194</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>万家中证1000指数增强A</t>
+          <t>博时睿祥15个月定期开放混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.17</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.06</t>
+          <t>64.37</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1210</t>
+          <t>0.0696</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1382,36 +1133,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>014201</t>
+          <t>290012</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天弘中证1000指数增强A</t>
+          <t>泰信行业精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.95</t>
+          <t>94.09</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>7.37</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0910</t>
+          <t>0.0479</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1420,36 +1171,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005314</t>
+          <t>010195</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>万家中证1000指数增强C</t>
+          <t>博时睿祥15个月定期开放混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.06</t>
+          <t>64.37</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0585</t>
+          <t>0.0003</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1458,36 +1209,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>014202</t>
+          <t>002583</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天弘中证1000指数增强C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.36</t>
+          <t>泰信行业精选灵活配置混合C</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.95</t>
+          <t>94.09</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0373</t>
-        </is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1501,96 +1245,352 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>290011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰信中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0323</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001970</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>4</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>290006</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰信蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005104</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富荣福康混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005105</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富荣福康混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002580</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.19</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>